--- a/biology/Botanique/Sideroxylon_st-johnianum/Sideroxylon_st-johnianum.xlsx
+++ b/biology/Botanique/Sideroxylon_st-johnianum/Sideroxylon_st-johnianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sideroxylon st-johnianum[1] est une espèce de plantes à fleurs de la famille des Sapotaceae. C'est un arbre endémique des Îles Pitcairn.  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sideroxylon st-johnianum est une espèce de plantes à fleurs de la famille des Sapotaceae. C'est un arbre endémique des Îles Pitcairn.  
 Elle est considérée comme vulnérable par l'Union internationale pour la conservation de la nature qui la cite sous le nom de Nesoluma st.-johnianum.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nesoluma st-johnianum H.J.Lam &amp; B.Meeuse  (et la graphie avec une coquille  Nesoluma st.-johnianum H.J.Lam &amp; B.Meeuse )</t>
         </is>
